--- a/Agile_Template_v0.1.xlsx
+++ b/Agile_Template_v0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\infosys_internship\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C51063E-C69F-4942-972F-D56541A6DE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36632DDB-0E6D-4AFB-AE5F-80C2FC5CB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -217,7 +217,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Almost completed</t>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1096,9 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>57</v>
       </c>
@@ -1116,7 +1121,9 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1139,7 +1146,9 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1162,7 +1171,9 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1185,7 +1196,9 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>57</v>
       </c>
@@ -1208,7 +1221,9 @@
       <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>57</v>
       </c>
@@ -1231,7 +1246,9 @@
       <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>57</v>
       </c>
@@ -1254,7 +1271,9 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1277,7 +1296,9 @@
       <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>57</v>
       </c>
@@ -1300,7 +1321,9 @@
       <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1323,7 +1346,9 @@
       <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>57</v>
       </c>
@@ -1346,7 +1371,9 @@
       <c r="F13" s="3">
         <v>11</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1354,7 +1381,7 @@
         <v>45951</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1363,9 +1390,11 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" s="58">
         <v>45960</v>
